--- a/Capsule Audit Log.xlsx
+++ b/Capsule Audit Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hgarrison\Documents\GitHub\PDL_Scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C0CAF0-626B-4EF6-8F13-01A91D4D5A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02DCBA8-E2B5-4563-BEA6-D809C5F83C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="360" windowWidth="29040" windowHeight="15720" xr2:uid="{098C0C56-CA10-46A5-B149-510EB8104303}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{098C0C56-CA10-46A5-B149-510EB8104303}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date Captured</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Capsule Product</t>
+  </si>
+  <si>
+    <t>Capsule Coverage Tag(s)</t>
+  </si>
+  <si>
+    <t>Contour</t>
+  </si>
+  <si>
+    <t>Contour Next Next Gen</t>
+  </si>
+  <si>
+    <t>PDL Effective Date</t>
   </si>
 </sst>
 </file>
@@ -74,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,20 +432,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCAD93D-2E26-4B48-BEA6-D84C18330D68}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45901</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>45901</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Capsule Audit Log.xlsx
+++ b/Capsule Audit Log.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hgarrison\Documents\GitHub\PDL_Scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02DCBA8-E2B5-4563-BEA6-D809C5F83C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AF95EC-A422-4C06-A4C3-1580118E1B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{098C0C56-CA10-46A5-B149-510EB8104303}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="110">
   <si>
     <t>Date Captured</t>
   </si>
@@ -60,6 +63,312 @@
   </si>
   <si>
     <t>PDL Effective Date</t>
+  </si>
+  <si>
+    <t>Accu-Chek Guide Test Strips</t>
+  </si>
+  <si>
+    <t>100 ct</t>
+  </si>
+  <si>
+    <t>50 ct</t>
+  </si>
+  <si>
+    <t>Contour Next Test In Vitro Strips</t>
+  </si>
+  <si>
+    <t>25 ct</t>
+  </si>
+  <si>
+    <t>Contour Plus Test In Vitro Strips</t>
+  </si>
+  <si>
+    <t>Contour Test In Vitro Strips</t>
+  </si>
+  <si>
+    <t>Dulera</t>
+  </si>
+  <si>
+    <t>50 mcg / 5 mcg</t>
+  </si>
+  <si>
+    <t>Epinephrine (Mylan Ag Epipen And Jr) 0.15mg</t>
+  </si>
+  <si>
+    <t>Mylan's EpiPen Jr AG</t>
+  </si>
+  <si>
+    <t>Epinephrine (Mylan Ag Epipen And Jr) 0.3mg</t>
+  </si>
+  <si>
+    <t>Mylan's EpiPen AG</t>
+  </si>
+  <si>
+    <t>Freestyle Freedom Lite Meter</t>
+  </si>
+  <si>
+    <t>Freestyle Insulinx Glucose System</t>
+  </si>
+  <si>
+    <t>FreeStyle InsuLinx Test Strips</t>
+  </si>
+  <si>
+    <t>Freestyle Lite Meter</t>
+  </si>
+  <si>
+    <t>FreeStyle Lite Test Strips</t>
+  </si>
+  <si>
+    <t>Freestyle Precision Neo Meter</t>
+  </si>
+  <si>
+    <t>FreeStyle Precision Neo Strips</t>
+  </si>
+  <si>
+    <t>FreeStyle Test Strips</t>
+  </si>
+  <si>
+    <t>One Touch Ultra 2 System</t>
+  </si>
+  <si>
+    <t>One Touch Ultra Test Strips</t>
+  </si>
+  <si>
+    <t>One Touch Verio</t>
+  </si>
+  <si>
+    <t>Onetouch Verio Flex System</t>
+  </si>
+  <si>
+    <t>One Touch Verio Test Strips</t>
+  </si>
+  <si>
+    <t>Precision Test Strips</t>
+  </si>
+  <si>
+    <t>Precision Xtra Beta Ketone Test Strips</t>
+  </si>
+  <si>
+    <t>10 ct</t>
+  </si>
+  <si>
+    <t>Precision Xtra Monitor</t>
+  </si>
+  <si>
+    <t>ReliOn Rx TMX Strips</t>
+  </si>
+  <si>
+    <t>Relion TrueMetrix Air</t>
+  </si>
+  <si>
+    <t>Select-Ob Tab Chew</t>
+  </si>
+  <si>
+    <t>Stuart One Otc</t>
+  </si>
+  <si>
+    <t>True Metrix</t>
+  </si>
+  <si>
+    <t>True Metrix Air</t>
+  </si>
+  <si>
+    <t>True Metrix Test Strips</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Not on PDL</t>
+  </si>
+  <si>
+    <t>Listed on PDL as "(except 50-5mcg)"</t>
+  </si>
+  <si>
+    <t>Generic Not on PDL; Brand is</t>
+  </si>
+  <si>
+    <t>PDL only lists "FREESTYLE LIBRE, -2, -2 Plus, -3, -3 Plus"</t>
+  </si>
+  <si>
+    <t>"Select-Ob +DHA" on PDL</t>
+  </si>
+  <si>
+    <t>Non-Preferred</t>
+  </si>
+  <si>
+    <t>Preferred</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Not Captured by PDL Scraper</t>
+  </si>
+  <si>
+    <t>Concatenated Drug Name</t>
+  </si>
+  <si>
+    <t>Accu-Chek Guide Test Strips 100 ct</t>
+  </si>
+  <si>
+    <t>Accu-Chek Guide Test Strips 50 ct</t>
+  </si>
+  <si>
+    <t>Contour Next Test In Vitro Strips 100 ct</t>
+  </si>
+  <si>
+    <t>Contour Next Test In Vitro Strips 25 ct</t>
+  </si>
+  <si>
+    <t>Contour Next Test In Vitro Strips 50 ct</t>
+  </si>
+  <si>
+    <t>Contour Plus Test In Vitro Strips 50 ct</t>
+  </si>
+  <si>
+    <t>Contour Test In Vitro Strips 100 ct</t>
+  </si>
+  <si>
+    <t>Contour Test In Vitro Strips 25 ct</t>
+  </si>
+  <si>
+    <t>Contour Test In Vitro Strips 50 ct</t>
+  </si>
+  <si>
+    <t>Dulera 50 mcg / 5 mcg</t>
+  </si>
+  <si>
+    <t>Epinephrine (Mylan Ag Epipen And Jr) 0.15mg Mylan's EpiPen Jr AG</t>
+  </si>
+  <si>
+    <t>Epinephrine (Mylan Ag Epipen And Jr) 0.3mg Mylan's EpiPen AG</t>
+  </si>
+  <si>
+    <t>FreeStyle InsuLinx Test Strips 100 ct</t>
+  </si>
+  <si>
+    <t>FreeStyle InsuLinx Test Strips 50 ct</t>
+  </si>
+  <si>
+    <t>FreeStyle Lite Test Strips 100 ct</t>
+  </si>
+  <si>
+    <t>FreeStyle Lite Test Strips 50 ct</t>
+  </si>
+  <si>
+    <t>FreeStyle Precision Neo Strips 25 ct</t>
+  </si>
+  <si>
+    <t>FreeStyle Precision Neo Strips 50 ct</t>
+  </si>
+  <si>
+    <t>FreeStyle Test Strips 100 ct</t>
+  </si>
+  <si>
+    <t>FreeStyle Test Strips 50 ct</t>
+  </si>
+  <si>
+    <t>One Touch Ultra Test Strips 100 ct</t>
+  </si>
+  <si>
+    <t>One Touch Ultra Test Strips 25 ct</t>
+  </si>
+  <si>
+    <t>One Touch Ultra Test Strips 50 ct</t>
+  </si>
+  <si>
+    <t>One Touch Verio Test Strips 100 ct</t>
+  </si>
+  <si>
+    <t>One Touch Verio Test Strips 25 ct</t>
+  </si>
+  <si>
+    <t>One Touch Verio Test Strips 50 ct</t>
+  </si>
+  <si>
+    <t>Precision Test Strips 100 ct</t>
+  </si>
+  <si>
+    <t>Precision Test Strips 50 ct</t>
+  </si>
+  <si>
+    <t>Precision Xtra Beta Ketone Test Strips 10 ct</t>
+  </si>
+  <si>
+    <t>ReliOn Rx TMX Strips 100 ct</t>
+  </si>
+  <si>
+    <t>ReliOn Rx TMX Strips 50 ct</t>
+  </si>
+  <si>
+    <t>True Metrix Test Strips 100 ct</t>
+  </si>
+  <si>
+    <t>True Metrix Test Strips 25 ct</t>
+  </si>
+  <si>
+    <t>True Metrix Test Strips 50 ct</t>
+  </si>
+  <si>
+    <t>Capsule-Listed PDL Status</t>
+  </si>
+  <si>
+    <t>Exforge</t>
+  </si>
+  <si>
+    <t>Freestyle Libre 14-Day</t>
+  </si>
+  <si>
+    <t>FreeStyle Libre 14 Day Reader</t>
+  </si>
+  <si>
+    <t>FreeStyle Libre 14 Day Sensor Kit</t>
+  </si>
+  <si>
+    <t>FreeStyle Libre 2 Reader</t>
+  </si>
+  <si>
+    <t>FreeStyle Libre 2 Sensor</t>
+  </si>
+  <si>
+    <t>Freestyle Libre 3 Reader</t>
+  </si>
+  <si>
+    <t>FreeStyle Libre 3 Sensor</t>
+  </si>
+  <si>
+    <t>Levalbuterol Tartrate</t>
+  </si>
+  <si>
+    <t>inhalation aerosol solution</t>
+  </si>
+  <si>
+    <t>Levalbuterol Tartrate inhalation aerosol solution</t>
+  </si>
+  <si>
+    <t>Rystiggo</t>
+  </si>
+  <si>
+    <t>Non-Preferred (Not Listed)</t>
+  </si>
+  <si>
+    <t>Non-PDL</t>
+  </si>
+  <si>
+    <t>Captured by PDL Scraper but Capsule says not on PDL</t>
+  </si>
+  <si>
+    <t>PDL lists "FREESTYLE LIBRE, -2, -2 Plus, -3, -3 Plus"</t>
+  </si>
+  <si>
+    <t>PDL Lists Exforge HCT, is this different than Exforge?</t>
+  </si>
+  <si>
+    <t>PDL lists "levalbuterol neb generic", is this different than "Levalbuterol Tartrate inhalation aerosol solution"?</t>
+  </si>
+  <si>
+    <t>PDL lists "Rystiggo", but doesn't give it a PDL status.</t>
   </si>
 </sst>
 </file>
@@ -95,9 +404,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,21 +742,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCAD93D-2E26-4B48-BEA6-D84C18330D68}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,30 +778,1660 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>45901</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="1">
-        <v>45901</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" t="s">
+        <v>54</v>
+      </c>
+      <c r="I50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" t="s">
+        <v>103</v>
+      </c>
+      <c r="H51" t="s">
+        <v>105</v>
+      </c>
+      <c r="I51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" t="s">
+        <v>105</v>
+      </c>
+      <c r="I53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" t="s">
+        <v>103</v>
+      </c>
+      <c r="H54" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" t="s">
+        <v>105</v>
+      </c>
+      <c r="I55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" t="s">
+        <v>103</v>
+      </c>
+      <c r="H56" t="s">
+        <v>105</v>
+      </c>
+      <c r="I56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" t="s">
+        <v>105</v>
+      </c>
+      <c r="I57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D58" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" t="s">
+        <v>103</v>
+      </c>
+      <c r="H58" t="s">
+        <v>105</v>
+      </c>
+      <c r="I58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F59" t="s">
+        <v>101</v>
+      </c>
+      <c r="G59" t="s">
+        <v>103</v>
+      </c>
+      <c r="H59" t="s">
+        <v>105</v>
+      </c>
+      <c r="I59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D60" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1" xr:uid="{DFCAD93D-2E26-4B48-BEA6-D84C18330D68}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>